--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.51647066666666</v>
+        <v>31.34409633333334</v>
       </c>
       <c r="H2">
-        <v>115.549412</v>
+        <v>94.03228900000001</v>
       </c>
       <c r="I2">
-        <v>0.1698567744219909</v>
+        <v>0.1331436845910624</v>
       </c>
       <c r="J2">
-        <v>0.1818830664871652</v>
+        <v>0.1436002032967755</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.916237</v>
+        <v>13.582109</v>
       </c>
       <c r="N2">
-        <v>47.748711</v>
+        <v>40.746327</v>
       </c>
       <c r="O2">
-        <v>0.1807523655213274</v>
+        <v>0.1468569803870159</v>
       </c>
       <c r="P2">
-        <v>0.1917923603630477</v>
+        <v>0.1573927859769708</v>
       </c>
       <c r="Q2">
-        <v>613.0372755342146</v>
+        <v>425.7189329058338</v>
       </c>
       <c r="R2">
-        <v>5517.335479807932</v>
+        <v>3831.470396152503</v>
       </c>
       <c r="S2">
-        <v>0.03070201377659735</v>
+        <v>0.01955307947664469</v>
       </c>
       <c r="T2">
-        <v>0.03488378263164255</v>
+        <v>0.02260163606373888</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.51647066666666</v>
+        <v>31.34409633333334</v>
       </c>
       <c r="H3">
-        <v>115.549412</v>
+        <v>94.03228900000001</v>
       </c>
       <c r="I3">
-        <v>0.1698567744219909</v>
+        <v>0.1331436845910624</v>
       </c>
       <c r="J3">
-        <v>0.1818830664871652</v>
+        <v>0.1436002032967755</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>54.91068</v>
       </c>
       <c r="O3">
-        <v>0.2078639421781384</v>
+        <v>0.1979078176984568</v>
       </c>
       <c r="P3">
-        <v>0.2205598581779516</v>
+        <v>0.2121061097136419</v>
       </c>
       <c r="Q3">
-        <v>704.9885318355733</v>
+        <v>573.7085478829467</v>
       </c>
       <c r="R3">
-        <v>6344.896786520159</v>
+        <v>5163.376930946521</v>
       </c>
       <c r="S3">
-        <v>0.03530709873701781</v>
+        <v>0.02635017605774881</v>
       </c>
       <c r="T3">
-        <v>0.04011610334938009</v>
+        <v>0.03045848047536714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.51647066666666</v>
+        <v>31.34409633333334</v>
       </c>
       <c r="H4">
-        <v>115.549412</v>
+        <v>94.03228900000001</v>
       </c>
       <c r="I4">
-        <v>0.1698567744219909</v>
+        <v>0.1331436845910624</v>
       </c>
       <c r="J4">
-        <v>0.1818830664871652</v>
+        <v>0.1436002032967755</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.01902666666667</v>
+        <v>20.18372733333333</v>
       </c>
       <c r="N4">
-        <v>51.05708</v>
+        <v>60.551182</v>
       </c>
       <c r="O4">
-        <v>0.193276170043871</v>
+        <v>0.218237186075315</v>
       </c>
       <c r="P4">
-        <v>0.2050810939471215</v>
+        <v>0.2338939465434174</v>
       </c>
       <c r="Q4">
-        <v>655.5128413818843</v>
+        <v>632.6406939017331</v>
       </c>
       <c r="R4">
-        <v>5899.615572436959</v>
+        <v>5693.766245115598</v>
       </c>
       <c r="S4">
-        <v>0.03282926681628814</v>
+        <v>0.02905690306885274</v>
       </c>
       <c r="T4">
-        <v>0.03730077824564487</v>
+        <v>0.03358721827351988</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.51647066666666</v>
+        <v>31.34409633333334</v>
       </c>
       <c r="H5">
-        <v>115.549412</v>
+        <v>94.03228900000001</v>
       </c>
       <c r="I5">
-        <v>0.1698567744219909</v>
+        <v>0.1331436845910624</v>
       </c>
       <c r="J5">
-        <v>0.1818830664871652</v>
+        <v>0.1436002032967755</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.2060085</v>
+        <v>18.572775</v>
       </c>
       <c r="N5">
-        <v>30.412017</v>
+        <v>37.14555</v>
       </c>
       <c r="O5">
-        <v>0.1726866725164002</v>
+        <v>0.2008187133461717</v>
       </c>
       <c r="P5">
-        <v>0.1221560205851658</v>
+        <v>0.1434838924535914</v>
       </c>
       <c r="Q5">
-        <v>585.681780347334</v>
+        <v>582.1468487773251</v>
       </c>
       <c r="R5">
-        <v>3514.090682084004</v>
+        <v>3492.88109266395</v>
       </c>
       <c r="S5">
-        <v>0.02933200117930239</v>
+        <v>0.02673774342974567</v>
       </c>
       <c r="T5">
-        <v>0.02221811161389923</v>
+        <v>0.02060431612614839</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.51647066666666</v>
+        <v>31.34409633333334</v>
       </c>
       <c r="H6">
-        <v>115.549412</v>
+        <v>94.03228900000001</v>
       </c>
       <c r="I6">
-        <v>0.1698567744219909</v>
+        <v>0.1331436845910624</v>
       </c>
       <c r="J6">
-        <v>0.1818830664871652</v>
+        <v>0.1436002032967755</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.61065166666667</v>
+        <v>21.843109</v>
       </c>
       <c r="N6">
-        <v>64.83195500000001</v>
+        <v>65.52932699999999</v>
       </c>
       <c r="O6">
-        <v>0.2454208497402632</v>
+        <v>0.2361793024930407</v>
       </c>
       <c r="P6">
-        <v>0.2604106669267134</v>
+        <v>0.2531232653123785</v>
       </c>
       <c r="Q6">
-        <v>832.3660310067178</v>
+        <v>684.6525127155004</v>
       </c>
       <c r="R6">
-        <v>7491.29427906046</v>
+        <v>6161.872614439503</v>
       </c>
       <c r="S6">
-        <v>0.0416863939127852</v>
+        <v>0.03144578255807054</v>
       </c>
       <c r="T6">
-        <v>0.04736429064659844</v>
+        <v>0.03634855235800119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>134.388828</v>
       </c>
       <c r="I7">
-        <v>0.1975505755272189</v>
+        <v>0.1902859530282681</v>
       </c>
       <c r="J7">
-        <v>0.2115376592159223</v>
+        <v>0.2052301738779898</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.916237</v>
+        <v>13.582109</v>
       </c>
       <c r="N7">
-        <v>47.748711</v>
+        <v>40.746327</v>
       </c>
       <c r="O7">
-        <v>0.1807523655213274</v>
+        <v>0.1468569803870159</v>
       </c>
       <c r="P7">
-        <v>0.1917923603630477</v>
+        <v>0.1573927859769708</v>
       </c>
       <c r="Q7">
-        <v>712.988145533412</v>
+        <v>608.4279034260841</v>
       </c>
       <c r="R7">
-        <v>6416.893309800707</v>
+        <v>5475.851130834756</v>
       </c>
       <c r="S7">
-        <v>0.03570773383664446</v>
+        <v>0.02794482047179701</v>
       </c>
       <c r="T7">
-        <v>0.04057130696669576</v>
+        <v>0.03230174883319496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>134.388828</v>
       </c>
       <c r="I8">
-        <v>0.1975505755272189</v>
+        <v>0.1902859530282681</v>
       </c>
       <c r="J8">
-        <v>0.2115376592159223</v>
+        <v>0.2052301738779898</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>54.91068</v>
       </c>
       <c r="O8">
-        <v>0.2078639421781384</v>
+        <v>0.1979078176984568</v>
       </c>
       <c r="P8">
-        <v>0.2205598581779516</v>
+        <v>0.2121061097136419</v>
       </c>
       <c r="Q8">
         <v>819.93132554256</v>
@@ -948,10 +948,10 @@
         <v>7379.381929883039</v>
       </c>
       <c r="S8">
-        <v>0.04106364140864779</v>
+        <v>0.0376590777024956</v>
       </c>
       <c r="T8">
-        <v>0.04665671611595968</v>
+        <v>0.04353057377711472</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>134.388828</v>
       </c>
       <c r="I9">
-        <v>0.1975505755272189</v>
+        <v>0.1902859530282681</v>
       </c>
       <c r="J9">
-        <v>0.2115376592159223</v>
+        <v>0.2052301738779898</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.01902666666667</v>
+        <v>20.18372733333333</v>
       </c>
       <c r="N9">
-        <v>51.05708</v>
+        <v>60.551182</v>
       </c>
       <c r="O9">
-        <v>0.193276170043871</v>
+        <v>0.218237186075315</v>
       </c>
       <c r="P9">
-        <v>0.2050810939471215</v>
+        <v>0.2338939465434174</v>
       </c>
       <c r="Q9">
-        <v>762.38901581136</v>
+        <v>904.155820332744</v>
       </c>
       <c r="R9">
-        <v>6861.50114230224</v>
+        <v>8137.402382994695</v>
       </c>
       <c r="S9">
-        <v>0.03818181862786334</v>
+        <v>0.0415274709385488</v>
       </c>
       <c r="T9">
-        <v>0.04338237456301475</v>
+        <v>0.04800209531811481</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>134.388828</v>
       </c>
       <c r="I10">
-        <v>0.1975505755272189</v>
+        <v>0.1902859530282681</v>
       </c>
       <c r="J10">
-        <v>0.2115376592159223</v>
+        <v>0.2052301738779898</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.2060085</v>
+        <v>18.572775</v>
       </c>
       <c r="N10">
-        <v>30.412017</v>
+        <v>37.14555</v>
       </c>
       <c r="O10">
-        <v>0.1726866725164002</v>
+        <v>0.2008187133461717</v>
       </c>
       <c r="P10">
-        <v>0.1221560205851658</v>
+        <v>0.1434838924535914</v>
       </c>
       <c r="Q10">
-        <v>681.1725536243461</v>
+        <v>831.9911549858999</v>
       </c>
       <c r="R10">
-        <v>4087.035321746076</v>
+        <v>4991.9469299154</v>
       </c>
       <c r="S10">
-        <v>0.03411435154149522</v>
+        <v>0.03821298025498688</v>
       </c>
       <c r="T10">
-        <v>0.025840598653718</v>
+        <v>0.02944722419694135</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>134.388828</v>
       </c>
       <c r="I11">
-        <v>0.1975505755272189</v>
+        <v>0.1902859530282681</v>
       </c>
       <c r="J11">
-        <v>0.2115376592159223</v>
+        <v>0.2052301738779898</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.61065166666667</v>
+        <v>21.843109</v>
       </c>
       <c r="N11">
-        <v>64.83195500000001</v>
+        <v>65.52932699999999</v>
       </c>
       <c r="O11">
-        <v>0.2454208497402632</v>
+        <v>0.2361793024930407</v>
       </c>
       <c r="P11">
-        <v>0.2604106669267134</v>
+        <v>0.2531232653123785</v>
       </c>
       <c r="Q11">
-        <v>968.0767165998601</v>
+        <v>978.489939462084</v>
       </c>
       <c r="R11">
-        <v>8712.69044939874</v>
+        <v>8806.409455158755</v>
       </c>
       <c r="S11">
-        <v>0.04848303011256809</v>
+        <v>0.04494160366043987</v>
       </c>
       <c r="T11">
-        <v>0.05508666291653415</v>
+        <v>0.05194853175262399</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.03357566666667</v>
+        <v>52.65180833333333</v>
       </c>
       <c r="H12">
-        <v>129.100727</v>
+        <v>157.955425</v>
       </c>
       <c r="I12">
-        <v>0.1897771064707281</v>
+        <v>0.2236547414648942</v>
       </c>
       <c r="J12">
-        <v>0.2032138087598608</v>
+        <v>0.2412196000230152</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.916237</v>
+        <v>13.582109</v>
       </c>
       <c r="N12">
-        <v>47.748711</v>
+        <v>40.746327</v>
       </c>
       <c r="O12">
-        <v>0.1807523655213274</v>
+        <v>0.1468569803870159</v>
       </c>
       <c r="P12">
-        <v>0.1917923603630477</v>
+        <v>0.1573927859769708</v>
       </c>
       <c r="Q12">
-        <v>684.9325892680997</v>
+        <v>715.1225998304417</v>
       </c>
       <c r="R12">
-        <v>6164.393303412898</v>
+        <v>6436.103398473975</v>
       </c>
       <c r="S12">
-        <v>0.03430266091637692</v>
+        <v>0.03284525998077308</v>
       </c>
       <c r="T12">
-        <v>0.03897485604041869</v>
+        <v>0.03796622487987292</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.03357566666667</v>
+        <v>52.65180833333333</v>
       </c>
       <c r="H13">
-        <v>129.100727</v>
+        <v>157.955425</v>
       </c>
       <c r="I13">
-        <v>0.1897771064707281</v>
+        <v>0.2236547414648942</v>
       </c>
       <c r="J13">
-        <v>0.2032138087598608</v>
+        <v>0.2412196000230152</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>54.91068</v>
       </c>
       <c r="O13">
-        <v>0.2078639421781384</v>
+        <v>0.1979078176984568</v>
       </c>
       <c r="P13">
-        <v>0.2205598581779516</v>
+        <v>0.2121061097136419</v>
       </c>
       <c r="Q13">
-        <v>787.6676342293734</v>
+        <v>963.7155329376666</v>
       </c>
       <c r="R13">
-        <v>7089.008708064361</v>
+        <v>8673.439796438999</v>
       </c>
       <c r="S13">
-        <v>0.03944781748616585</v>
+        <v>0.04426302180122976</v>
       </c>
       <c r="T13">
-        <v>0.04482080883987628</v>
+        <v>0.05116415094756248</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.03357566666667</v>
+        <v>52.65180833333333</v>
       </c>
       <c r="H14">
-        <v>129.100727</v>
+        <v>157.955425</v>
       </c>
       <c r="I14">
-        <v>0.1897771064707281</v>
+        <v>0.2236547414648942</v>
       </c>
       <c r="J14">
-        <v>0.2032138087598608</v>
+        <v>0.2412196000230152</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.01902666666667</v>
+        <v>20.18372733333333</v>
       </c>
       <c r="N14">
-        <v>51.05708</v>
+        <v>60.551182</v>
       </c>
       <c r="O14">
-        <v>0.193276170043871</v>
+        <v>0.218237186075315</v>
       </c>
       <c r="P14">
-        <v>0.2050810939471215</v>
+        <v>0.2338939465434174</v>
       </c>
       <c r="Q14">
-        <v>732.3895718330178</v>
+        <v>1062.709743006928</v>
       </c>
       <c r="R14">
-        <v>6591.50614649716</v>
+        <v>9564.38768706235</v>
       </c>
       <c r="S14">
-        <v>0.03667939230067026</v>
+        <v>0.04880978142970057</v>
       </c>
       <c r="T14">
-        <v>0.04167531020563341</v>
+        <v>0.05641980423300764</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.03357566666667</v>
+        <v>52.65180833333333</v>
       </c>
       <c r="H15">
-        <v>129.100727</v>
+        <v>157.955425</v>
       </c>
       <c r="I15">
-        <v>0.1897771064707281</v>
+        <v>0.2236547414648942</v>
       </c>
       <c r="J15">
-        <v>0.2032138087598608</v>
+        <v>0.2412196000230152</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.2060085</v>
+        <v>18.572775</v>
       </c>
       <c r="N15">
-        <v>30.412017</v>
+        <v>37.14555</v>
       </c>
       <c r="O15">
-        <v>0.1726866725164002</v>
+        <v>0.2008187133461717</v>
       </c>
       <c r="P15">
-        <v>0.1221560205851658</v>
+        <v>0.1434838924535914</v>
       </c>
       <c r="Q15">
-        <v>654.3689173727266</v>
+        <v>977.8901895181249</v>
       </c>
       <c r="R15">
-        <v>3926.213504236359</v>
+        <v>5867.34113710875</v>
       </c>
       <c r="S15">
-        <v>0.03277197703622063</v>
+        <v>0.04491405741475073</v>
       </c>
       <c r="T15">
-        <v>0.02482379020605951</v>
+        <v>0.03461112714740064</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.03357566666667</v>
+        <v>52.65180833333333</v>
       </c>
       <c r="H16">
-        <v>129.100727</v>
+        <v>157.955425</v>
       </c>
       <c r="I16">
-        <v>0.1897771064707281</v>
+        <v>0.2236547414648942</v>
       </c>
       <c r="J16">
-        <v>0.2032138087598608</v>
+        <v>0.2412196000230152</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.61065166666667</v>
+        <v>21.843109</v>
       </c>
       <c r="N16">
-        <v>64.83195500000001</v>
+        <v>65.52932699999999</v>
       </c>
       <c r="O16">
-        <v>0.2454208497402632</v>
+        <v>0.2361793024930407</v>
       </c>
       <c r="P16">
-        <v>0.2604106669267134</v>
+        <v>0.2531232653123785</v>
       </c>
       <c r="Q16">
-        <v>929.9836137034763</v>
+        <v>1150.079188472108</v>
       </c>
       <c r="R16">
-        <v>8369.852523331287</v>
+        <v>10350.71269624897</v>
       </c>
       <c r="S16">
-        <v>0.04657525873129449</v>
+        <v>0.05282262083844005</v>
       </c>
       <c r="T16">
-        <v>0.05291904346787294</v>
+        <v>0.06105829281517149</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>44.980507</v>
+        <v>51.4266815</v>
       </c>
       <c r="H17">
-        <v>89.96101400000001</v>
+        <v>102.853363</v>
       </c>
       <c r="I17">
-        <v>0.1983630301178629</v>
+        <v>0.2184506386269409</v>
       </c>
       <c r="J17">
-        <v>0.1416050917733342</v>
+        <v>0.1570711932425365</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.916237</v>
+        <v>13.582109</v>
       </c>
       <c r="N17">
-        <v>47.748711</v>
+        <v>40.746327</v>
       </c>
       <c r="O17">
-        <v>0.1807523655213274</v>
+        <v>0.1468569803870159</v>
       </c>
       <c r="P17">
-        <v>0.1917923603630477</v>
+        <v>0.1573927859769708</v>
       </c>
       <c r="Q17">
-        <v>715.920409792159</v>
+        <v>698.4827936412836</v>
       </c>
       <c r="R17">
-        <v>4295.522458752955</v>
+        <v>4190.896761847701</v>
       </c>
       <c r="S17">
-        <v>0.03585458692578203</v>
+        <v>0.03208100115236777</v>
       </c>
       <c r="T17">
-        <v>0.02715877479063375</v>
+        <v>0.02472187270116998</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>44.980507</v>
+        <v>51.4266815</v>
       </c>
       <c r="H18">
-        <v>89.96101400000001</v>
+        <v>102.853363</v>
       </c>
       <c r="I18">
-        <v>0.1983630301178629</v>
+        <v>0.2184506386269409</v>
       </c>
       <c r="J18">
-        <v>0.1416050917733342</v>
+        <v>0.1570711932425365</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>54.91068</v>
       </c>
       <c r="O18">
-        <v>0.2078639421781384</v>
+        <v>0.1979078176984568</v>
       </c>
       <c r="P18">
-        <v>0.2205598581779516</v>
+        <v>0.2121061097136419</v>
       </c>
       <c r="Q18">
-        <v>823.3034087049201</v>
+        <v>941.2913504361401</v>
       </c>
       <c r="R18">
-        <v>4939.82045222952</v>
+        <v>5647.74810261684</v>
       </c>
       <c r="S18">
-        <v>0.04123252142269979</v>
+        <v>0.04323308916549209</v>
       </c>
       <c r="T18">
-        <v>0.0312323989588024</v>
+        <v>0.0333157597467541</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>44.980507</v>
+        <v>51.4266815</v>
       </c>
       <c r="H19">
-        <v>89.96101400000001</v>
+        <v>102.853363</v>
       </c>
       <c r="I19">
-        <v>0.1983630301178629</v>
+        <v>0.2184506386269409</v>
       </c>
       <c r="J19">
-        <v>0.1416050917733342</v>
+        <v>0.1570711932425365</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.01902666666667</v>
+        <v>20.18372733333333</v>
       </c>
       <c r="N19">
-        <v>51.05708</v>
+        <v>60.551182</v>
       </c>
       <c r="O19">
-        <v>0.193276170043871</v>
+        <v>0.218237186075315</v>
       </c>
       <c r="P19">
-        <v>0.2050810939471215</v>
+        <v>0.2338939465434174</v>
       </c>
       <c r="Q19">
-        <v>765.5244481131866</v>
+        <v>1037.982117054178</v>
       </c>
       <c r="R19">
-        <v>4593.14668867912</v>
+        <v>6227.892702325066</v>
       </c>
       <c r="S19">
-        <v>0.03833884673947757</v>
+        <v>0.0476740526702991</v>
       </c>
       <c r="T19">
-        <v>0.02904052712935791</v>
+        <v>0.03673800127578063</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>44.980507</v>
+        <v>51.4266815</v>
       </c>
       <c r="H20">
-        <v>89.96101400000001</v>
+        <v>102.853363</v>
       </c>
       <c r="I20">
-        <v>0.1983630301178629</v>
+        <v>0.2184506386269409</v>
       </c>
       <c r="J20">
-        <v>0.1416050917733342</v>
+        <v>0.1570711932425365</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.2060085</v>
+        <v>18.572775</v>
       </c>
       <c r="N20">
-        <v>30.412017</v>
+        <v>37.14555</v>
       </c>
       <c r="O20">
-        <v>0.1726866725164002</v>
+        <v>0.2008187133461717</v>
       </c>
       <c r="P20">
-        <v>0.1221560205851658</v>
+        <v>0.1434838924535914</v>
       </c>
       <c r="Q20">
-        <v>683.9739717763096</v>
+        <v>955.1361844961625</v>
       </c>
       <c r="R20">
-        <v>2735.895887105238</v>
+        <v>3820.54473798465</v>
       </c>
       <c r="S20">
-        <v>0.03425465162132421</v>
+        <v>0.04386897617871181</v>
       </c>
       <c r="T20">
-        <v>0.0172979145056277</v>
+        <v>0.02253718619876938</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>44.980507</v>
+        <v>51.4266815</v>
       </c>
       <c r="H21">
-        <v>89.96101400000001</v>
+        <v>102.853363</v>
       </c>
       <c r="I21">
-        <v>0.1983630301178629</v>
+        <v>0.2184506386269409</v>
       </c>
       <c r="J21">
-        <v>0.1416050917733342</v>
+        <v>0.1570711932425365</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.61065166666667</v>
+        <v>21.843109</v>
       </c>
       <c r="N21">
-        <v>64.83195500000001</v>
+        <v>65.52932699999999</v>
       </c>
       <c r="O21">
-        <v>0.2454208497402632</v>
+        <v>0.2361793024930407</v>
       </c>
       <c r="P21">
-        <v>0.2604106669267134</v>
+        <v>0.2531232653123785</v>
       </c>
       <c r="Q21">
-        <v>972.0580685670618</v>
+        <v>1123.318609512783</v>
       </c>
       <c r="R21">
-        <v>5832.348411402371</v>
+        <v>6739.911657076701</v>
       </c>
       <c r="S21">
-        <v>0.04868242340857933</v>
+        <v>0.05159351946007021</v>
       </c>
       <c r="T21">
-        <v>0.03687547638891241</v>
+        <v>0.03975837332006245</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>55.43169</v>
+        <v>55.19670733333334</v>
       </c>
       <c r="H22">
-        <v>166.29507</v>
+        <v>165.590122</v>
       </c>
       <c r="I22">
-        <v>0.244452513462199</v>
+        <v>0.2344649822888343</v>
       </c>
       <c r="J22">
-        <v>0.2617603737637175</v>
+        <v>0.252878829559683</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.916237</v>
+        <v>13.582109</v>
       </c>
       <c r="N22">
-        <v>47.748711</v>
+        <v>40.746327</v>
       </c>
       <c r="O22">
-        <v>0.1807523655213274</v>
+        <v>0.1468569803870159</v>
       </c>
       <c r="P22">
-        <v>0.1917923603630477</v>
+        <v>0.1573927859769708</v>
       </c>
       <c r="Q22">
-        <v>882.2639153505299</v>
+        <v>749.6876954424328</v>
       </c>
       <c r="R22">
-        <v>7940.375238154769</v>
+        <v>6747.189258981894</v>
       </c>
       <c r="S22">
-        <v>0.04418537006592661</v>
+        <v>0.03443281930543337</v>
       </c>
       <c r="T22">
-        <v>0.05020363993365697</v>
+        <v>0.03980130349899406</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>55.43169</v>
+        <v>55.19670733333334</v>
       </c>
       <c r="H23">
-        <v>166.29507</v>
+        <v>165.590122</v>
       </c>
       <c r="I23">
-        <v>0.244452513462199</v>
+        <v>0.2344649822888343</v>
       </c>
       <c r="J23">
-        <v>0.2617603737637175</v>
+        <v>0.252878829559683</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>54.91068</v>
       </c>
       <c r="O23">
-        <v>0.2078639421781384</v>
+        <v>0.1979078176984568</v>
       </c>
       <c r="P23">
-        <v>0.2205598581779516</v>
+        <v>0.2121061097136419</v>
       </c>
       <c r="Q23">
-        <v>1014.5972638164</v>
+        <v>1010.296244478107</v>
       </c>
       <c r="R23">
-        <v>9131.375374347599</v>
+        <v>9092.66620030296</v>
       </c>
       <c r="S23">
-        <v>0.05081286312360715</v>
+        <v>0.04640245297149051</v>
       </c>
       <c r="T23">
-        <v>0.05773383091393314</v>
+        <v>0.05363714476684348</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>55.43169</v>
+        <v>55.19670733333334</v>
       </c>
       <c r="H24">
-        <v>166.29507</v>
+        <v>165.590122</v>
       </c>
       <c r="I24">
-        <v>0.244452513462199</v>
+        <v>0.2344649822888343</v>
       </c>
       <c r="J24">
-        <v>0.2617603737637175</v>
+        <v>0.252878829559683</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.01902666666667</v>
+        <v>20.18372733333333</v>
       </c>
       <c r="N24">
-        <v>51.05708</v>
+        <v>60.551182</v>
       </c>
       <c r="O24">
-        <v>0.193276170043871</v>
+        <v>0.218237186075315</v>
       </c>
       <c r="P24">
-        <v>0.2050810939471215</v>
+        <v>0.2338939465434174</v>
       </c>
       <c r="Q24">
-        <v>943.3934102883999</v>
+        <v>1114.075290513801</v>
       </c>
       <c r="R24">
-        <v>8490.540692595599</v>
+        <v>10026.6776146242</v>
       </c>
       <c r="S24">
-        <v>0.04724684555957164</v>
+        <v>0.05116897796791375</v>
       </c>
       <c r="T24">
-        <v>0.0536821038034706</v>
+        <v>0.05914682744299446</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>55.43169</v>
+        <v>55.19670733333334</v>
       </c>
       <c r="H25">
-        <v>166.29507</v>
+        <v>165.590122</v>
       </c>
       <c r="I25">
-        <v>0.244452513462199</v>
+        <v>0.2344649822888343</v>
       </c>
       <c r="J25">
-        <v>0.2617603737637175</v>
+        <v>0.252878829559683</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.2060085</v>
+        <v>18.572775</v>
       </c>
       <c r="N25">
-        <v>30.412017</v>
+        <v>37.14555</v>
       </c>
       <c r="O25">
-        <v>0.1726866725164002</v>
+        <v>0.2008187133461717</v>
       </c>
       <c r="P25">
-        <v>0.1221560205851658</v>
+        <v>0.1434838924535914</v>
       </c>
       <c r="Q25">
-        <v>842.894749309365</v>
+        <v>1025.15602604285</v>
       </c>
       <c r="R25">
-        <v>5057.36849585619</v>
+        <v>6150.9361562571</v>
       </c>
       <c r="S25">
-        <v>0.04221369113805767</v>
+        <v>0.04708495606797664</v>
       </c>
       <c r="T25">
-        <v>0.03197560560586138</v>
+        <v>0.03628403878433163</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>55.43169</v>
+        <v>55.19670733333334</v>
       </c>
       <c r="H26">
-        <v>166.29507</v>
+        <v>165.590122</v>
       </c>
       <c r="I26">
-        <v>0.244452513462199</v>
+        <v>0.2344649822888343</v>
       </c>
       <c r="J26">
-        <v>0.2617603737637175</v>
+        <v>0.252878829559683</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.61065166666667</v>
+        <v>21.843109</v>
       </c>
       <c r="N26">
-        <v>64.83195500000001</v>
+        <v>65.52932699999999</v>
       </c>
       <c r="O26">
-        <v>0.2454208497402632</v>
+        <v>0.2361793024930407</v>
       </c>
       <c r="P26">
-        <v>0.2604106669267134</v>
+        <v>0.2531232653123785</v>
       </c>
       <c r="Q26">
-        <v>1197.91494388465</v>
+        <v>1205.667694723099</v>
       </c>
       <c r="R26">
-        <v>10781.23449496185</v>
+        <v>10851.00925250789</v>
       </c>
       <c r="S26">
-        <v>0.05999374357503601</v>
+        <v>0.05537577597602002</v>
       </c>
       <c r="T26">
-        <v>0.06816519350679545</v>
+        <v>0.06400951506651938</v>
       </c>
     </row>
   </sheetData>
